--- a/Tables/количество потребительских корзин за зарплату(со средним).xlsx
+++ b/Tables/количество потребительских корзин за зарплату(со средним).xlsx
@@ -721,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z86"/>
+  <dimension ref="A1:Z87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA74" sqref="AA74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5267,2352 +5267,2352 @@
         <v>2.0053884199176664</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>1.895160219317384</v>
-      </c>
-      <c r="C58">
-        <v>1.8879115004009761</v>
-      </c>
-      <c r="D58">
-        <v>1.906138208101956</v>
-      </c>
-      <c r="E58">
-        <v>1.875901392719018</v>
-      </c>
-      <c r="F58">
-        <v>1.783072556175455</v>
-      </c>
-      <c r="G58">
-        <v>1.826688552103169</v>
-      </c>
-      <c r="H58">
-        <v>1.869909466291753</v>
-      </c>
-      <c r="I58">
-        <v>1.8777448551165781</v>
-      </c>
-      <c r="J58">
-        <v>1.873039969638256</v>
-      </c>
-      <c r="K58">
-        <v>1.863388909278386</v>
-      </c>
-      <c r="L58">
-        <v>1.9332265959349639</v>
-      </c>
-      <c r="M58">
-        <v>1.9515404371572771</v>
-      </c>
-      <c r="N58">
-        <v>1.991859635467341</v>
-      </c>
-      <c r="O58">
-        <v>2.038799625872981</v>
-      </c>
-      <c r="P58">
-        <v>2.071692691275592</v>
-      </c>
-      <c r="Q58">
-        <v>2.056388752261304</v>
-      </c>
-      <c r="R58">
-        <v>2.0376692859184229</v>
-      </c>
-      <c r="S58">
-        <v>2.0585868470749031</v>
-      </c>
-      <c r="T58">
-        <v>2.121330511256422</v>
-      </c>
-      <c r="U58">
-        <v>2.1374454949182331</v>
-      </c>
-      <c r="V58">
-        <v>2.141301197331031</v>
-      </c>
-      <c r="W58">
-        <v>2.1467335383385171</v>
-      </c>
-      <c r="X58">
-        <v>2.1487191369142069</v>
-      </c>
-      <c r="Y58">
-        <v>2.111535613172979</v>
-      </c>
-      <c r="Z58">
-        <f>AVERAGE(A58:X58)</f>
-        <v>1.9780108425593104</v>
-      </c>
-    </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>1.89844946560219</v>
+        <v>1.895160219317384</v>
       </c>
       <c r="C59">
-        <v>1.895032753003818</v>
+        <v>1.8879115004009761</v>
       </c>
       <c r="D59">
-        <v>1.9434593827843889</v>
+        <v>1.906138208101956</v>
       </c>
       <c r="E59">
-        <v>1.9272254488533811</v>
+        <v>1.875901392719018</v>
       </c>
       <c r="F59">
-        <v>1.8632698051262</v>
+        <v>1.783072556175455</v>
       </c>
       <c r="G59">
-        <v>1.8740800729487841</v>
+        <v>1.826688552103169</v>
       </c>
       <c r="H59">
-        <v>1.912777922609959</v>
+        <v>1.869909466291753</v>
       </c>
       <c r="I59">
-        <v>1.911061098265658</v>
+        <v>1.8777448551165781</v>
       </c>
       <c r="J59">
-        <v>1.889684235694965</v>
+        <v>1.873039969638256</v>
       </c>
       <c r="K59">
-        <v>1.9327299748722231</v>
+        <v>1.863388909278386</v>
       </c>
       <c r="L59">
-        <v>1.9783535365678231</v>
+        <v>1.9332265959349639</v>
       </c>
       <c r="M59">
-        <v>1.987310125832366</v>
+        <v>1.9515404371572771</v>
       </c>
       <c r="N59">
-        <v>2.0328452113550748</v>
+        <v>1.991859635467341</v>
       </c>
       <c r="O59">
-        <v>2.1085805013563919</v>
+        <v>2.038799625872981</v>
       </c>
       <c r="P59">
-        <v>2.150543359415853</v>
+        <v>2.071692691275592</v>
       </c>
       <c r="Q59">
-        <v>2.1355145372841791</v>
+        <v>2.056388752261304</v>
       </c>
       <c r="R59">
-        <v>2.1644690108328888</v>
+        <v>2.0376692859184229</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>2.0585868470749031</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>2.121330511256422</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>2.1374454949182331</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>2.141301197331031</v>
       </c>
       <c r="W59">
-        <v>0</v>
+        <v>2.1467335383385171</v>
       </c>
       <c r="X59">
-        <v>0</v>
+        <v>2.1487191369142069</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>2.111535613172979</v>
       </c>
       <c r="Z59">
-        <f>AVERAGE(A59:Q59)</f>
-        <v>1.9650573394733284</v>
+        <f>AVERAGE(A59:X59)</f>
+        <v>1.9780108425593104</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="B60">
-        <v>1.89281596786143</v>
+        <v>1.89844946560219</v>
       </c>
       <c r="C60">
-        <v>1.8383286552228231</v>
+        <v>1.895032753003818</v>
       </c>
       <c r="D60">
-        <v>1.852361523747508</v>
+        <v>1.9434593827843889</v>
       </c>
       <c r="E60">
-        <v>1.837861478449704</v>
+        <v>1.9272254488533811</v>
       </c>
       <c r="F60">
-        <v>1.7835159218684029</v>
+        <v>1.8632698051262</v>
       </c>
       <c r="G60">
-        <v>1.807953452727868</v>
+        <v>1.8740800729487841</v>
       </c>
       <c r="H60">
-        <v>1.851238029797879</v>
+        <v>1.912777922609959</v>
       </c>
       <c r="I60">
-        <v>1.849623987496045</v>
+        <v>1.911061098265658</v>
       </c>
       <c r="J60">
-        <v>1.848770314971955</v>
+        <v>1.889684235694965</v>
       </c>
       <c r="K60">
-        <v>1.837099727464002</v>
+        <v>1.9327299748722231</v>
       </c>
       <c r="L60">
-        <v>1.889465691987146</v>
+        <v>1.9783535365678231</v>
       </c>
       <c r="M60">
-        <v>1.89993914322181</v>
+        <v>1.987310125832366</v>
       </c>
       <c r="N60">
-        <v>1.94873201593816</v>
+        <v>2.0328452113550748</v>
       </c>
       <c r="O60">
-        <v>1.9987679081767351</v>
+        <v>2.1085805013563919</v>
       </c>
       <c r="P60">
-        <v>2.0403992319294</v>
+        <v>2.150543359415853</v>
       </c>
       <c r="Q60">
-        <v>2.0331178586060901</v>
+        <v>2.1355145372841791</v>
       </c>
       <c r="R60">
-        <v>2.0361446583937628</v>
+        <v>2.1644690108328888</v>
       </c>
       <c r="S60">
-        <v>2.064591858003225</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>2.13846560963239</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>2.15273284559991</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>2.1641491346253501</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>2.1678741018398648</v>
+        <v>0</v>
       </c>
       <c r="X60">
-        <v>2.1961010385123809</v>
+        <v>0</v>
       </c>
       <c r="Y60">
-        <v>2.1552091960946709</v>
+        <v>0</v>
       </c>
       <c r="Z60">
-        <f>AVERAGE(A60:X60)</f>
-        <v>1.9621760937423407</v>
+        <f>AVERAGE(A60:Q60)</f>
+        <v>1.9650573394733284</v>
       </c>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B61">
-        <v>1.7790554160556831</v>
+        <v>1.89281596786143</v>
       </c>
       <c r="C61">
-        <v>1.7647642326465109</v>
+        <v>1.8383286552228231</v>
       </c>
       <c r="D61">
-        <v>1.816880824107213</v>
+        <v>1.852361523747508</v>
       </c>
       <c r="E61">
-        <v>1.789382477587411</v>
+        <v>1.837861478449704</v>
       </c>
       <c r="F61">
-        <v>1.738000036515674</v>
+        <v>1.7835159218684029</v>
       </c>
       <c r="G61">
-        <v>1.7746499833182521</v>
+        <v>1.807953452727868</v>
       </c>
       <c r="H61">
-        <v>1.8183836275097891</v>
+        <v>1.851238029797879</v>
       </c>
       <c r="I61">
-        <v>1.8259668313586741</v>
+        <v>1.849623987496045</v>
       </c>
       <c r="J61">
-        <v>1.8290793757365309</v>
+        <v>1.848770314971955</v>
       </c>
       <c r="K61">
-        <v>1.827119404488313</v>
+        <v>1.837099727464002</v>
       </c>
       <c r="L61">
-        <v>1.8849400510320731</v>
+        <v>1.889465691987146</v>
       </c>
       <c r="M61">
-        <v>1.8929952482573511</v>
+        <v>1.89993914322181</v>
       </c>
       <c r="N61">
-        <v>1.910592914447607</v>
+        <v>1.94873201593816</v>
       </c>
       <c r="O61">
-        <v>1.9546448716472891</v>
+        <v>1.9987679081767351</v>
       </c>
       <c r="P61">
-        <v>2.0024820076883891</v>
+        <v>2.0403992319294</v>
       </c>
       <c r="Q61">
-        <v>1.9943990665110849</v>
+        <v>2.0331178586060901</v>
       </c>
       <c r="R61">
-        <v>1.9956475997889349</v>
+        <v>2.0361446583937628</v>
       </c>
       <c r="S61">
-        <v>2.02821076831993</v>
+        <v>2.064591858003225</v>
       </c>
       <c r="T61">
-        <v>2.092121327161427</v>
+        <v>2.13846560963239</v>
       </c>
       <c r="U61">
-        <v>2.1099546234739002</v>
+        <v>2.15273284559991</v>
       </c>
       <c r="V61">
-        <v>2.1139518593988789</v>
+        <v>2.1641491346253501</v>
       </c>
       <c r="W61">
-        <v>2.1045425375583462</v>
+        <v>2.1678741018398648</v>
       </c>
       <c r="X61">
-        <v>2.12898211283441</v>
+        <v>2.1961010385123809</v>
       </c>
       <c r="Y61">
-        <v>2.093581418073001</v>
+        <v>2.1552091960946709</v>
       </c>
       <c r="Z61">
         <f>AVERAGE(A61:X61)</f>
-        <v>1.9207281390192903</v>
+        <v>1.9621760937423407</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>1.9987514353936171</v>
+        <v>1.7790554160556831</v>
       </c>
       <c r="C62">
-        <v>1.9309411928017239</v>
+        <v>1.7647642326465109</v>
       </c>
       <c r="D62">
-        <v>1.962590141996877</v>
+        <v>1.816880824107213</v>
       </c>
       <c r="E62">
-        <v>1.8853265806221731</v>
+        <v>1.789382477587411</v>
       </c>
       <c r="F62">
-        <v>1.7958075339859561</v>
+        <v>1.738000036515674</v>
       </c>
       <c r="G62">
-        <v>1.7959801540250271</v>
+        <v>1.7746499833182521</v>
       </c>
       <c r="H62">
-        <v>1.816637983757414</v>
+        <v>1.8183836275097891</v>
       </c>
       <c r="I62">
-        <v>1.7977858443306081</v>
+        <v>1.8259668313586741</v>
       </c>
       <c r="J62">
-        <v>1.7792347161205939</v>
+        <v>1.8290793757365309</v>
       </c>
       <c r="K62">
-        <v>1.767262850607084</v>
+        <v>1.827119404488313</v>
       </c>
       <c r="L62">
-        <v>1.802045621339065</v>
+        <v>1.8849400510320731</v>
       </c>
       <c r="M62">
-        <v>1.7729143142534529</v>
+        <v>1.8929952482573511</v>
       </c>
       <c r="N62">
-        <v>1.856526873964633</v>
+        <v>1.910592914447607</v>
       </c>
       <c r="O62">
-        <v>1.9865284730791199</v>
+        <v>1.9546448716472891</v>
       </c>
       <c r="P62">
-        <v>2.042165122708631</v>
+        <v>2.0024820076883891</v>
       </c>
       <c r="Q62">
-        <v>1.924184461655849</v>
+        <v>1.9943990665110849</v>
       </c>
       <c r="R62">
-        <v>1.911529874749309</v>
+        <v>1.9956475997889349</v>
       </c>
       <c r="S62">
-        <v>2.0039993109801308</v>
+        <v>2.02821076831993</v>
       </c>
       <c r="T62">
-        <v>2.0557615445185342</v>
+        <v>2.092121327161427</v>
       </c>
       <c r="U62">
-        <v>1.9958729907981521</v>
+        <v>2.1099546234739002</v>
       </c>
       <c r="V62">
-        <v>2.0418054574828739</v>
+        <v>2.1139518593988789</v>
       </c>
       <c r="W62">
-        <v>2.051702245949838</v>
+        <v>2.1045425375583462</v>
       </c>
       <c r="X62">
-        <v>2.1386053807990839</v>
+        <v>2.12898211283441</v>
       </c>
       <c r="Y62">
-        <v>2.1022707132577612</v>
+        <v>2.093581418073001</v>
       </c>
       <c r="Z62">
         <f>AVERAGE(A62:X62)</f>
-        <v>1.9179982654747716</v>
+        <v>1.9207281390192903</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>1.817863287409091</v>
+        <v>1.9987514353936171</v>
       </c>
       <c r="C63">
-        <v>1.7951569613120399</v>
+        <v>1.9309411928017239</v>
       </c>
       <c r="D63">
-        <v>1.83022349805208</v>
+        <v>1.962590141996877</v>
       </c>
       <c r="E63">
-        <v>1.8008582651976059</v>
+        <v>1.8853265806221731</v>
       </c>
       <c r="F63">
-        <v>1.7041492144937209</v>
+        <v>1.7958075339859561</v>
       </c>
       <c r="G63">
-        <v>1.7518272666774779</v>
+        <v>1.7959801540250271</v>
       </c>
       <c r="H63">
-        <v>1.787967059441937</v>
+        <v>1.816637983757414</v>
       </c>
       <c r="I63">
-        <v>1.7863840657031069</v>
+        <v>1.7977858443306081</v>
       </c>
       <c r="J63">
-        <v>1.786534553456548</v>
+        <v>1.7792347161205939</v>
       </c>
       <c r="K63">
-        <v>1.782455645561422</v>
+        <v>1.767262850607084</v>
       </c>
       <c r="L63">
-        <v>1.8558054781074109</v>
+        <v>1.802045621339065</v>
       </c>
       <c r="M63">
-        <v>1.872164764948707</v>
+        <v>1.7729143142534529</v>
       </c>
       <c r="N63">
-        <v>1.9100711994793509</v>
+        <v>1.856526873964633</v>
       </c>
       <c r="O63">
-        <v>1.946882401195249</v>
+        <v>1.9865284730791199</v>
       </c>
       <c r="P63">
-        <v>1.996214982868219</v>
+        <v>2.042165122708631</v>
       </c>
       <c r="Q63">
-        <v>1.9830366292270289</v>
+        <v>1.924184461655849</v>
       </c>
       <c r="R63">
-        <v>1.978769935729588</v>
+        <v>1.911529874749309</v>
       </c>
       <c r="S63">
-        <v>2.0173888717110589</v>
+        <v>2.0039993109801308</v>
       </c>
       <c r="T63">
-        <v>2.106408188951602</v>
+        <v>2.0557615445185342</v>
       </c>
       <c r="U63">
-        <v>2.124014711022927</v>
+        <v>1.9958729907981521</v>
       </c>
       <c r="V63">
-        <v>2.1404491922420208</v>
+        <v>2.0418054574828739</v>
       </c>
       <c r="W63">
-        <v>2.1377506705227689</v>
+        <v>2.051702245949838</v>
       </c>
       <c r="X63">
-        <v>2.1640894423895358</v>
+        <v>2.1386053807990839</v>
       </c>
       <c r="Y63">
-        <v>2.1500438053651139</v>
+        <v>2.1022707132577612</v>
       </c>
       <c r="Z63">
         <f>AVERAGE(A63:X63)</f>
-        <v>1.9163680993782832</v>
+        <v>1.9179982654747716</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>1.797574500698796</v>
+        <v>1.817863287409091</v>
       </c>
       <c r="C64">
-        <v>1.835185163155328</v>
+        <v>1.7951569613120399</v>
       </c>
       <c r="D64">
-        <v>1.8869864414106541</v>
+        <v>1.83022349805208</v>
       </c>
       <c r="E64">
-        <v>1.8762130812335429</v>
+        <v>1.8008582651976059</v>
       </c>
       <c r="F64">
-        <v>1.7053502734399371</v>
+        <v>1.7041492144937209</v>
       </c>
       <c r="G64">
-        <v>1.7751683123568689</v>
+        <v>1.7518272666774779</v>
       </c>
       <c r="H64">
-        <v>1.826248782618368</v>
+        <v>1.787967059441937</v>
       </c>
       <c r="I64">
-        <v>1.8468770806209449</v>
+        <v>1.7863840657031069</v>
       </c>
       <c r="J64">
-        <v>1.818571451460433</v>
+        <v>1.786534553456548</v>
       </c>
       <c r="K64">
-        <v>1.814401809431134</v>
+        <v>1.782455645561422</v>
       </c>
       <c r="L64">
-        <v>1.8769428831601089</v>
+        <v>1.8558054781074109</v>
       </c>
       <c r="M64">
-        <v>1.920774894024484</v>
+        <v>1.872164764948707</v>
       </c>
       <c r="N64">
-        <v>1.9288549307572469</v>
+        <v>1.9100711994793509</v>
       </c>
       <c r="O64">
-        <v>1.9329283510738211</v>
+        <v>1.946882401195249</v>
       </c>
       <c r="P64">
-        <v>1.976300170701863</v>
+        <v>1.996214982868219</v>
       </c>
       <c r="Q64">
-        <v>1.981628259390156</v>
+        <v>1.9830366292270289</v>
       </c>
       <c r="R64">
-        <v>1.948396074193596</v>
+        <v>1.978769935729588</v>
       </c>
       <c r="S64">
-        <v>1.951291473325645</v>
+        <v>2.0173888717110589</v>
       </c>
       <c r="T64">
-        <v>2.0102878507580959</v>
+        <v>2.106408188951602</v>
       </c>
       <c r="U64">
-        <v>2.0511308202901319</v>
+        <v>2.124014711022927</v>
       </c>
       <c r="V64">
-        <v>2.0705701437931361</v>
+        <v>2.1404491922420208</v>
       </c>
       <c r="W64">
-        <v>2.0947874310367869</v>
+        <v>2.1377506705227689</v>
       </c>
       <c r="X64">
-        <v>2.136769322114485</v>
+        <v>2.1640894423895358</v>
       </c>
       <c r="Y64">
-        <v>2.1304298146610829</v>
+        <v>2.1500438053651139</v>
       </c>
       <c r="Z64">
         <f>AVERAGE(A64:X64)</f>
-        <v>1.9157930217845895</v>
+        <v>1.9163680993782832</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>1.8290298364147419</v>
+        <v>1.797574500698796</v>
       </c>
       <c r="C65">
-        <v>1.843831626770577</v>
+        <v>1.835185163155328</v>
       </c>
       <c r="D65">
-        <v>1.8863390024798969</v>
+        <v>1.8869864414106541</v>
       </c>
       <c r="E65">
-        <v>1.8689368663736481</v>
+        <v>1.8762130812335429</v>
       </c>
       <c r="F65">
-        <v>1.8074275420593819</v>
+        <v>1.7053502734399371</v>
       </c>
       <c r="G65">
-        <v>1.827246566936799</v>
+        <v>1.7751683123568689</v>
       </c>
       <c r="H65">
-        <v>1.8438581843624089</v>
+        <v>1.826248782618368</v>
       </c>
       <c r="I65">
-        <v>1.834279461929587</v>
+        <v>1.8468770806209449</v>
       </c>
       <c r="J65">
-        <v>1.8236255583257379</v>
+        <v>1.818571451460433</v>
       </c>
       <c r="K65">
-        <v>1.8218262477984359</v>
+        <v>1.814401809431134</v>
       </c>
       <c r="L65">
-        <v>1.8577365963376771</v>
+        <v>1.8769428831601089</v>
       </c>
       <c r="M65">
-        <v>1.873730339452268</v>
+        <v>1.920774894024484</v>
       </c>
       <c r="N65">
-        <v>1.890533602621586</v>
+        <v>1.9288549307572469</v>
       </c>
       <c r="O65">
-        <v>1.9051642301120191</v>
+        <v>1.9329283510738211</v>
       </c>
       <c r="P65">
-        <v>1.919044038163275</v>
+        <v>1.976300170701863</v>
       </c>
       <c r="Q65">
-        <v>1.9159721445351829</v>
+        <v>1.981628259390156</v>
       </c>
       <c r="R65">
-        <v>1.9260512490324879</v>
+        <v>1.948396074193596</v>
       </c>
       <c r="S65">
-        <v>1.951681017317527</v>
+        <v>1.951291473325645</v>
       </c>
       <c r="T65">
-        <v>2.0126529821669079</v>
+        <v>2.0102878507580959</v>
       </c>
       <c r="U65">
-        <v>2.0268484022688291</v>
+        <v>2.0511308202901319</v>
       </c>
       <c r="V65">
-        <v>2.0197454264639312</v>
+        <v>2.0705701437931361</v>
       </c>
       <c r="W65">
-        <v>2.0099397046375862</v>
+        <v>2.0947874310367869</v>
       </c>
       <c r="X65">
-        <v>2.0515148763582429</v>
+        <v>2.136769322114485</v>
       </c>
       <c r="Y65">
-        <v>2.0294849356302782</v>
+        <v>2.1304298146610829</v>
       </c>
       <c r="Z65">
         <f>AVERAGE(A65:X65)</f>
-        <v>1.9020441523008143</v>
+        <v>1.9157930217845895</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="B66">
-        <v>1.795112075710225</v>
+        <v>1.8290298364147419</v>
       </c>
       <c r="C66">
-        <v>1.7779622751438351</v>
+        <v>1.843831626770577</v>
       </c>
       <c r="D66">
-        <v>1.8255870911972341</v>
+        <v>1.8863390024798969</v>
       </c>
       <c r="E66">
-        <v>1.82320711417097</v>
+        <v>1.8689368663736481</v>
       </c>
       <c r="F66">
-        <v>1.700889033041425</v>
+        <v>1.8074275420593819</v>
       </c>
       <c r="G66">
-        <v>1.7372117884767331</v>
+        <v>1.827246566936799</v>
       </c>
       <c r="H66">
-        <v>1.7934813399917451</v>
+        <v>1.8438581843624089</v>
       </c>
       <c r="I66">
-        <v>1.7974290958834891</v>
+        <v>1.834279461929587</v>
       </c>
       <c r="J66">
-        <v>1.784326975132281</v>
+        <v>1.8236255583257379</v>
       </c>
       <c r="K66">
-        <v>1.784707808531758</v>
+        <v>1.8218262477984359</v>
       </c>
       <c r="L66">
-        <v>1.8374984289514109</v>
+        <v>1.8577365963376771</v>
       </c>
       <c r="M66">
-        <v>1.8625832099634541</v>
+        <v>1.873730339452268</v>
       </c>
       <c r="N66">
-        <v>1.894121796739614</v>
+        <v>1.890533602621586</v>
       </c>
       <c r="O66">
-        <v>1.926870752597408</v>
+        <v>1.9051642301120191</v>
       </c>
       <c r="P66">
-        <v>1.978622874675289</v>
+        <v>1.919044038163275</v>
       </c>
       <c r="Q66">
-        <v>1.96525620637209</v>
+        <v>1.9159721445351829</v>
       </c>
       <c r="R66">
-        <v>1.951010165299776</v>
+        <v>1.9260512490324879</v>
       </c>
       <c r="S66">
-        <v>1.978013537516202</v>
+        <v>1.951681017317527</v>
       </c>
       <c r="T66">
-        <v>2.051089856266374</v>
+        <v>2.0126529821669079</v>
       </c>
       <c r="U66">
-        <v>2.071899969444198</v>
+        <v>2.0268484022688291</v>
       </c>
       <c r="V66">
-        <v>2.0986015287280639</v>
+        <v>2.0197454264639312</v>
       </c>
       <c r="W66">
-        <v>2.094623906705539</v>
+        <v>2.0099397046375862</v>
       </c>
       <c r="X66">
-        <v>2.140412343972804</v>
+        <v>2.0515148763582429</v>
       </c>
       <c r="Y66">
-        <v>2.1229538222028892</v>
+        <v>2.0294849356302782</v>
       </c>
       <c r="Z66">
         <f>AVERAGE(A66:X66)</f>
-        <v>1.8987182249787791</v>
+        <v>1.9020441523008143</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B67">
-        <v>1.748765775513512</v>
+        <v>1.795112075710225</v>
       </c>
       <c r="C67">
-        <v>1.758997842354129</v>
+        <v>1.7779622751438351</v>
       </c>
       <c r="D67">
-        <v>1.806687814805972</v>
+        <v>1.8255870911972341</v>
       </c>
       <c r="E67">
-        <v>1.801863647617548</v>
+        <v>1.82320711417097</v>
       </c>
       <c r="F67">
-        <v>1.666680422922324</v>
+        <v>1.700889033041425</v>
       </c>
       <c r="G67">
-        <v>1.7366293405538831</v>
+        <v>1.7372117884767331</v>
       </c>
       <c r="H67">
-        <v>1.7984508547008551</v>
+        <v>1.7934813399917451</v>
       </c>
       <c r="I67">
-        <v>1.7889746586214481</v>
+        <v>1.7974290958834891</v>
       </c>
       <c r="J67">
-        <v>1.793405837596183</v>
+        <v>1.784326975132281</v>
       </c>
       <c r="K67">
-        <v>1.849806680352714</v>
+        <v>1.784707808531758</v>
       </c>
       <c r="L67">
-        <v>1.9036015178150749</v>
+        <v>1.8374984289514109</v>
       </c>
       <c r="M67">
-        <v>1.9068939188315059</v>
+        <v>1.8625832099634541</v>
       </c>
       <c r="N67">
-        <v>1.918813756977179</v>
+        <v>1.894121796739614</v>
       </c>
       <c r="O67">
-        <v>1.9282830563695861</v>
+        <v>1.926870752597408</v>
       </c>
       <c r="P67">
-        <v>1.9906344529949049</v>
+        <v>1.978622874675289</v>
       </c>
       <c r="Q67">
-        <v>1.968423961525037</v>
+        <v>1.96525620637209</v>
       </c>
       <c r="R67">
-        <v>1.95443704837504</v>
+        <v>1.951010165299776</v>
       </c>
       <c r="S67">
-        <v>1.994106413802186</v>
+        <v>1.978013537516202</v>
       </c>
       <c r="T67">
-        <v>2.0676761659434102</v>
+        <v>2.051089856266374</v>
       </c>
       <c r="U67">
-        <v>2.067525947972197</v>
+        <v>2.071899969444198</v>
       </c>
       <c r="V67">
-        <v>2.0610459059656918</v>
+        <v>2.0986015287280639</v>
       </c>
       <c r="W67">
-        <v>2.046770358808689</v>
+        <v>2.094623906705539</v>
       </c>
       <c r="X67">
-        <v>2.0763462605365359</v>
+        <v>2.140412343972804</v>
       </c>
       <c r="Y67">
-        <v>2.0654798095229649</v>
+        <v>2.1229538222028892</v>
       </c>
       <c r="Z67">
         <f>AVERAGE(A67:X67)</f>
-        <v>1.897166158302418</v>
+        <v>1.8987182249787791</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>1.754982425007678</v>
+        <v>1.748765775513512</v>
       </c>
       <c r="C68">
-        <v>1.7557241165791799</v>
+        <v>1.758997842354129</v>
       </c>
       <c r="D68">
-        <v>1.767742149638186</v>
+        <v>1.806687814805972</v>
       </c>
       <c r="E68">
-        <v>1.7660085548106319</v>
+        <v>1.801863647617548</v>
       </c>
       <c r="F68">
-        <v>1.72367251272933</v>
+        <v>1.666680422922324</v>
       </c>
       <c r="G68">
-        <v>1.74107653092415</v>
+        <v>1.7366293405538831</v>
       </c>
       <c r="H68">
-        <v>1.750569809505887</v>
+        <v>1.7984508547008551</v>
       </c>
       <c r="I68">
-        <v>1.7450682460014031</v>
+        <v>1.7889746586214481</v>
       </c>
       <c r="J68">
-        <v>1.730236074939091</v>
+        <v>1.793405837596183</v>
       </c>
       <c r="K68">
-        <v>1.7148263244950119</v>
+        <v>1.849806680352714</v>
       </c>
       <c r="L68">
-        <v>1.7339053671443221</v>
+        <v>1.9036015178150749</v>
       </c>
       <c r="M68">
-        <v>1.7663889443224901</v>
+        <v>1.9068939188315059</v>
       </c>
       <c r="N68">
-        <v>1.937595511256073</v>
+        <v>1.918813756977179</v>
       </c>
       <c r="O68">
-        <v>1.9272730003078471</v>
+        <v>1.9282830563695861</v>
       </c>
       <c r="P68">
-        <v>1.9894212155687581</v>
+        <v>1.9906344529949049</v>
       </c>
       <c r="Q68">
-        <v>1.9931181499531909</v>
+        <v>1.968423961525037</v>
       </c>
       <c r="R68">
-        <v>1.9908579922217171</v>
+        <v>1.95443704837504</v>
       </c>
       <c r="S68">
-        <v>2.157666007628388</v>
+        <v>1.994106413802186</v>
       </c>
       <c r="T68">
-        <v>2.1696975703219201</v>
+        <v>2.0676761659434102</v>
       </c>
       <c r="U68">
-        <v>2.152162288775215</v>
+        <v>2.067525947972197</v>
       </c>
       <c r="V68">
-        <v>2.0574310174404</v>
+        <v>2.0610459059656918</v>
       </c>
       <c r="W68">
-        <v>2.0140785534220651</v>
+        <v>2.046770358808689</v>
       </c>
       <c r="X68">
-        <v>1.9964816853374781</v>
+        <v>2.0763462605365359</v>
       </c>
       <c r="Y68">
-        <v>1.976399517741295</v>
+        <v>2.0654798095229649</v>
       </c>
       <c r="Z68">
         <f>AVERAGE(A68:X68)</f>
-        <v>1.8841732194926268</v>
+        <v>1.897166158302418</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B69">
-        <v>1.740622185485978</v>
+        <v>1.754982425007678</v>
       </c>
       <c r="C69">
-        <v>1.7580350978432231</v>
+        <v>1.7557241165791799</v>
       </c>
       <c r="D69">
-        <v>1.7919618497374881</v>
+        <v>1.767742149638186</v>
       </c>
       <c r="E69">
-        <v>1.7734983490031</v>
+        <v>1.7660085548106319</v>
       </c>
       <c r="F69">
-        <v>1.715226726432894</v>
+        <v>1.72367251272933</v>
       </c>
       <c r="G69">
-        <v>1.744684880223166</v>
+        <v>1.74107653092415</v>
       </c>
       <c r="H69">
-        <v>1.7808467804527399</v>
+        <v>1.750569809505887</v>
       </c>
       <c r="I69">
-        <v>1.805372051335157</v>
+        <v>1.7450682460014031</v>
       </c>
       <c r="J69">
-        <v>1.793585688871318</v>
+        <v>1.730236074939091</v>
       </c>
       <c r="K69">
-        <v>1.787408598033124</v>
+        <v>1.7148263244950119</v>
       </c>
       <c r="L69">
-        <v>1.8461959746246179</v>
+        <v>1.7339053671443221</v>
       </c>
       <c r="M69">
-        <v>1.8703479850539151</v>
+        <v>1.7663889443224901</v>
       </c>
       <c r="N69">
-        <v>1.8935458934577409</v>
+        <v>1.937595511256073</v>
       </c>
       <c r="O69">
-        <v>1.9282907464804759</v>
+        <v>1.9272730003078471</v>
       </c>
       <c r="P69">
-        <v>2.0067171929204322</v>
+        <v>1.9894212155687581</v>
       </c>
       <c r="Q69">
-        <v>2.0086145733881069</v>
+        <v>1.9931181499531909</v>
       </c>
       <c r="R69">
-        <v>1.950957580096653</v>
+        <v>1.9908579922217171</v>
       </c>
       <c r="S69">
-        <v>1.9291712549280029</v>
+        <v>2.157666007628388</v>
       </c>
       <c r="T69">
-        <v>1.992383462556234</v>
+        <v>2.1696975703219201</v>
       </c>
       <c r="U69">
-        <v>2.0205080400838962</v>
+        <v>2.152162288775215</v>
       </c>
       <c r="V69">
-        <v>2.0257707603876249</v>
+        <v>2.0574310174404</v>
       </c>
       <c r="W69">
-        <v>2.0112248320774939</v>
+        <v>2.0140785534220651</v>
       </c>
       <c r="X69">
-        <v>2.037533839483809</v>
+        <v>1.9964816853374781</v>
       </c>
       <c r="Y69">
-        <v>2.0205873100377501</v>
+        <v>1.976399517741295</v>
       </c>
       <c r="Z69">
         <f>AVERAGE(A69:X69)</f>
-        <v>1.8788045366503126</v>
+        <v>1.8841732194926268</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B70">
-        <v>1.7126027590733299</v>
+        <v>1.740622185485978</v>
       </c>
       <c r="C70">
-        <v>1.720034890036042</v>
+        <v>1.7580350978432231</v>
       </c>
       <c r="D70">
-        <v>1.754835494329585</v>
+        <v>1.7919618497374881</v>
       </c>
       <c r="E70">
-        <v>1.7365030255421721</v>
+        <v>1.7734983490031</v>
       </c>
       <c r="F70">
-        <v>1.6947118683947371</v>
+        <v>1.715226726432894</v>
       </c>
       <c r="G70">
-        <v>1.735087268394121</v>
+        <v>1.744684880223166</v>
       </c>
       <c r="H70">
-        <v>1.764566187191817</v>
+        <v>1.7808467804527399</v>
       </c>
       <c r="I70">
-        <v>1.762849505534156</v>
+        <v>1.805372051335157</v>
       </c>
       <c r="J70">
-        <v>1.761315560816989</v>
+        <v>1.793585688871318</v>
       </c>
       <c r="K70">
-        <v>1.731451022043891</v>
+        <v>1.787408598033124</v>
       </c>
       <c r="L70">
-        <v>1.78368707416303</v>
+        <v>1.8461959746246179</v>
       </c>
       <c r="M70">
-        <v>1.802628463177836</v>
+        <v>1.8703479850539151</v>
       </c>
       <c r="N70">
-        <v>1.836673591815424</v>
+        <v>1.8935458934577409</v>
       </c>
       <c r="O70">
-        <v>1.8774330980588041</v>
+        <v>1.9282907464804759</v>
       </c>
       <c r="P70">
-        <v>1.89912295108892</v>
+        <v>2.0067171929204322</v>
       </c>
       <c r="Q70">
-        <v>1.8976916207281891</v>
+        <v>2.0086145733881069</v>
       </c>
       <c r="R70">
-        <v>1.921459408711919</v>
+        <v>1.950957580096653</v>
       </c>
       <c r="S70">
-        <v>1.9414563104565929</v>
+        <v>1.9291712549280029</v>
       </c>
       <c r="T70">
-        <v>2.0052989741847211</v>
+        <v>1.992383462556234</v>
       </c>
       <c r="U70">
-        <v>2.031489454440913</v>
+        <v>2.0205080400838962</v>
       </c>
       <c r="V70">
-        <v>2.0337898113027668</v>
+        <v>2.0257707603876249</v>
       </c>
       <c r="W70">
-        <v>2.039648272839909</v>
+        <v>2.0112248320774939</v>
       </c>
       <c r="X70">
-        <v>2.091409233019955</v>
+        <v>2.037533839483809</v>
       </c>
       <c r="Y70">
-        <v>2.0791075713884042</v>
+        <v>2.0205873100377501</v>
       </c>
       <c r="Z70">
         <f>AVERAGE(A70:X70)</f>
-        <v>1.8493802541454705</v>
+        <v>1.8788045366503126</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>1.7786343129954889</v>
+        <v>1.7126027590733299</v>
       </c>
       <c r="C71">
-        <v>1.7524194289917709</v>
+        <v>1.720034890036042</v>
       </c>
       <c r="D71">
-        <v>1.782608450926201</v>
+        <v>1.754835494329585</v>
       </c>
       <c r="E71">
-        <v>1.75819194046849</v>
+        <v>1.7365030255421721</v>
       </c>
       <c r="F71">
-        <v>1.6661725948516359</v>
+        <v>1.6947118683947371</v>
       </c>
       <c r="G71">
-        <v>1.7152220528934981</v>
+        <v>1.735087268394121</v>
       </c>
       <c r="H71">
-        <v>1.7573721044067261</v>
+        <v>1.764566187191817</v>
       </c>
       <c r="I71">
-        <v>1.7579572540395321</v>
+        <v>1.762849505534156</v>
       </c>
       <c r="J71">
-        <v>1.746951625408212</v>
+        <v>1.761315560816989</v>
       </c>
       <c r="K71">
-        <v>1.747400971950307</v>
+        <v>1.731451022043891</v>
       </c>
       <c r="L71">
-        <v>1.808109473014994</v>
+        <v>1.78368707416303</v>
       </c>
       <c r="M71">
-        <v>1.831016507384883</v>
+        <v>1.802628463177836</v>
       </c>
       <c r="N71">
-        <v>1.8611103607688479</v>
+        <v>1.836673591815424</v>
       </c>
       <c r="O71">
-        <v>1.8795020257527311</v>
+        <v>1.8774330980588041</v>
       </c>
       <c r="P71">
-        <v>1.9241293314775061</v>
+        <v>1.89912295108892</v>
       </c>
       <c r="Q71">
-        <v>1.915925987482666</v>
+        <v>1.8976916207281891</v>
       </c>
       <c r="R71">
-        <v>1.896611335339867</v>
+        <v>1.921459408711919</v>
       </c>
       <c r="S71">
-        <v>1.901426087454295</v>
+        <v>1.9414563104565929</v>
       </c>
       <c r="T71">
-        <v>1.9598745695433251</v>
+        <v>2.0052989741847211</v>
       </c>
       <c r="U71">
-        <v>1.9832747044175041</v>
+        <v>2.031489454440913</v>
       </c>
       <c r="V71">
-        <v>1.9979565068287319</v>
+        <v>2.0337898113027668</v>
       </c>
       <c r="W71">
-        <v>2.0035087232685211</v>
+        <v>2.039648272839909</v>
       </c>
       <c r="X71">
-        <v>2.040589240004945</v>
+        <v>2.091409233019955</v>
       </c>
       <c r="Y71">
-        <v>2.0245797792697879</v>
+        <v>2.0791075713884042</v>
       </c>
       <c r="Z71">
         <f>AVERAGE(A71:X71)</f>
-        <v>1.8463463299856817</v>
+        <v>1.8493802541454705</v>
       </c>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B72">
-        <v>1.7083744076392271</v>
+        <v>1.7786343129954889</v>
       </c>
       <c r="C72">
-        <v>1.714672529871383</v>
+        <v>1.7524194289917709</v>
       </c>
       <c r="D72">
-        <v>1.7477688497295729</v>
+        <v>1.782608450926201</v>
       </c>
       <c r="E72">
-        <v>1.7288287023446369</v>
+        <v>1.75819194046849</v>
       </c>
       <c r="F72">
-        <v>1.696360557047029</v>
+        <v>1.6661725948516359</v>
       </c>
       <c r="G72">
-        <v>1.7220510028486149</v>
+        <v>1.7152220528934981</v>
       </c>
       <c r="H72">
-        <v>1.775603583491306</v>
+        <v>1.7573721044067261</v>
       </c>
       <c r="I72">
-        <v>1.764911725652051</v>
+        <v>1.7579572540395321</v>
       </c>
       <c r="J72">
-        <v>1.7431620115281301</v>
+        <v>1.746951625408212</v>
       </c>
       <c r="K72">
-        <v>1.7203339981434329</v>
+        <v>1.747400971950307</v>
       </c>
       <c r="L72">
-        <v>1.7730776149556511</v>
+        <v>1.808109473014994</v>
       </c>
       <c r="M72">
-        <v>1.7880631619541461</v>
+        <v>1.831016507384883</v>
       </c>
       <c r="N72">
-        <v>1.824870925523254</v>
+        <v>1.8611103607688479</v>
       </c>
       <c r="O72">
-        <v>1.858430295012268</v>
+        <v>1.8795020257527311</v>
       </c>
       <c r="P72">
-        <v>1.9094179172758989</v>
+        <v>1.9241293314775061</v>
       </c>
       <c r="Q72">
-        <v>1.9070750535651451</v>
+        <v>1.915925987482666</v>
       </c>
       <c r="R72">
-        <v>1.921454876648319</v>
+        <v>1.896611335339867</v>
       </c>
       <c r="S72">
-        <v>1.9314397606839091</v>
+        <v>1.901426087454295</v>
       </c>
       <c r="T72">
-        <v>2.0023321526992262</v>
+        <v>1.9598745695433251</v>
       </c>
       <c r="U72">
-        <v>2.020676133325412</v>
+        <v>1.9832747044175041</v>
       </c>
       <c r="V72">
-        <v>2.0352542638647062</v>
+        <v>1.9979565068287319</v>
       </c>
       <c r="W72">
-        <v>2.002711305463833</v>
+        <v>2.0035087232685211</v>
       </c>
       <c r="X72">
-        <v>2.036633627802511</v>
+        <v>2.040589240004945</v>
       </c>
       <c r="Y72">
-        <v>2.0135285881419742</v>
+        <v>2.0245797792697879</v>
       </c>
       <c r="Z72">
         <f>AVERAGE(A72:X72)</f>
-        <v>1.8405871503073765</v>
+        <v>1.8463463299856817</v>
       </c>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B73">
-        <v>1.762360737649401</v>
+        <v>1.7083744076392271</v>
       </c>
       <c r="C73">
-        <v>1.7443427013332771</v>
+        <v>1.714672529871383</v>
       </c>
       <c r="D73">
-        <v>1.802656899539641</v>
+        <v>1.7477688497295729</v>
       </c>
       <c r="E73">
-        <v>1.797346892962115</v>
+        <v>1.7288287023446369</v>
       </c>
       <c r="F73">
-        <v>1.7336500590973321</v>
+        <v>1.696360557047029</v>
       </c>
       <c r="G73">
-        <v>1.7670137125444381</v>
+        <v>1.7220510028486149</v>
       </c>
       <c r="H73">
-        <v>1.8268133873883361</v>
+        <v>1.775603583491306</v>
       </c>
       <c r="I73">
-        <v>1.8237599842224641</v>
+        <v>1.764911725652051</v>
       </c>
       <c r="J73">
-        <v>1.795242471241614</v>
+        <v>1.7431620115281301</v>
       </c>
       <c r="K73">
-        <v>1.750824765951198</v>
+        <v>1.7203339981434329</v>
       </c>
       <c r="L73">
-        <v>1.8104447197027209</v>
+        <v>1.7730776149556511</v>
       </c>
       <c r="M73">
-        <v>1.8297849457337509</v>
+        <v>1.7880631619541461</v>
       </c>
       <c r="N73">
-        <v>1.836778683308357</v>
+        <v>1.824870925523254</v>
       </c>
       <c r="O73">
-        <v>1.818045970765636</v>
+        <v>1.858430295012268</v>
       </c>
       <c r="P73">
-        <v>1.867325328902496</v>
+        <v>1.9094179172758989</v>
       </c>
       <c r="Q73">
-        <v>1.857887196384403</v>
+        <v>1.9070750535651451</v>
       </c>
       <c r="R73">
-        <v>1.826106667530196</v>
+        <v>1.921454876648319</v>
       </c>
       <c r="S73">
-        <v>1.875380004281739</v>
+        <v>1.9314397606839091</v>
       </c>
       <c r="T73">
-        <v>1.962825802814014</v>
+        <v>2.0023321526992262</v>
       </c>
       <c r="U73">
-        <v>1.966992667629611</v>
+        <v>2.020676133325412</v>
       </c>
       <c r="V73">
-        <v>1.955223275413037</v>
+        <v>2.0352542638647062</v>
       </c>
       <c r="W73">
-        <v>1.9303846035789931</v>
+        <v>2.002711305463833</v>
       </c>
       <c r="X73">
-        <v>1.96864640380809</v>
+        <v>2.036633627802511</v>
       </c>
       <c r="Y73">
-        <v>1.944783131908066</v>
+        <v>2.0135285881419742</v>
       </c>
       <c r="Z73">
         <f>AVERAGE(A73:X73)</f>
-        <v>1.8395581687731679</v>
+        <v>1.8405871503073765</v>
       </c>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B74">
-        <v>1.761889129625982</v>
+        <v>1.762360737649401</v>
       </c>
       <c r="C74">
-        <v>1.7425474099053799</v>
+        <v>1.7443427013332771</v>
       </c>
       <c r="D74">
-        <v>1.769588745200708</v>
+        <v>1.802656899539641</v>
       </c>
       <c r="E74">
-        <v>1.698172435916852</v>
+        <v>1.797346892962115</v>
       </c>
       <c r="F74">
-        <v>1.676210307131702</v>
+        <v>1.7336500590973321</v>
       </c>
       <c r="G74">
-        <v>1.6806608487109449</v>
+        <v>1.7670137125444381</v>
       </c>
       <c r="H74">
-        <v>1.71397532478833</v>
+        <v>1.8268133873883361</v>
       </c>
       <c r="I74">
-        <v>1.6892564153048499</v>
+        <v>1.8237599842224641</v>
       </c>
       <c r="J74">
-        <v>1.6885963216933511</v>
+        <v>1.795242471241614</v>
       </c>
       <c r="K74">
-        <v>1.6617099239740549</v>
+        <v>1.750824765951198</v>
       </c>
       <c r="L74">
-        <v>1.7536830959386669</v>
+        <v>1.8104447197027209</v>
       </c>
       <c r="M74">
-        <v>1.7519117654560941</v>
+        <v>1.8297849457337509</v>
       </c>
       <c r="N74">
-        <v>1.8768719934650411</v>
+        <v>1.836778683308357</v>
       </c>
       <c r="O74">
-        <v>1.913565878035373</v>
+        <v>1.818045970765636</v>
       </c>
       <c r="P74">
-        <v>1.9602269930799601</v>
+        <v>1.867325328902496</v>
       </c>
       <c r="Q74">
-        <v>1.914362781441449</v>
+        <v>1.857887196384403</v>
       </c>
       <c r="R74">
-        <v>1.9043018572994801</v>
+        <v>1.826106667530196</v>
       </c>
       <c r="S74">
-        <v>1.911354170888294</v>
+        <v>1.875380004281739</v>
       </c>
       <c r="T74">
-        <v>1.99669040938197</v>
+        <v>1.962825802814014</v>
       </c>
       <c r="U74">
-        <v>1.9825303886976551</v>
+        <v>1.966992667629611</v>
       </c>
       <c r="V74">
-        <v>2.006080966150706</v>
+        <v>1.955223275413037</v>
       </c>
       <c r="W74">
-        <v>1.990927605998889</v>
+        <v>1.9303846035789931</v>
       </c>
       <c r="X74">
-        <v>2.0434511049237112</v>
+        <v>1.96864640380809</v>
       </c>
       <c r="Y74">
-        <v>1.9975134733739119</v>
+        <v>1.944783131908066</v>
       </c>
       <c r="Z74">
         <f>AVERAGE(A74:X74)</f>
-        <v>1.8299376466525845</v>
+        <v>1.8395581687731679</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B75">
-        <v>1.7508629733662731</v>
+        <v>1.761889129625982</v>
       </c>
       <c r="C75">
-        <v>1.716122295639875</v>
+        <v>1.7425474099053799</v>
       </c>
       <c r="D75">
-        <v>1.720304853935366</v>
+        <v>1.769588745200708</v>
       </c>
       <c r="E75">
-        <v>1.710915945437566</v>
+        <v>1.698172435916852</v>
       </c>
       <c r="F75">
-        <v>1.6192894766161969</v>
+        <v>1.676210307131702</v>
       </c>
       <c r="G75">
-        <v>1.664183139601298</v>
+        <v>1.6806608487109449</v>
       </c>
       <c r="H75">
-        <v>1.6996948178880591</v>
+        <v>1.71397532478833</v>
       </c>
       <c r="I75">
-        <v>1.6916904536932129</v>
+        <v>1.6892564153048499</v>
       </c>
       <c r="J75">
-        <v>1.6857595504055789</v>
+        <v>1.6885963216933511</v>
       </c>
       <c r="K75">
-        <v>1.6872096683881299</v>
+        <v>1.6617099239740549</v>
       </c>
       <c r="L75">
-        <v>1.7747934928893181</v>
+        <v>1.7536830959386669</v>
       </c>
       <c r="M75">
-        <v>1.7953443987221449</v>
+        <v>1.7519117654560941</v>
       </c>
       <c r="N75">
-        <v>1.8072640810980121</v>
+        <v>1.8768719934650411</v>
       </c>
       <c r="O75">
-        <v>1.849369594469245</v>
+        <v>1.913565878035373</v>
       </c>
       <c r="P75">
-        <v>1.8958329464633901</v>
+        <v>1.9602269930799601</v>
       </c>
       <c r="Q75">
-        <v>1.889844712157269</v>
+        <v>1.914362781441449</v>
       </c>
       <c r="R75">
-        <v>1.8815164908505231</v>
+        <v>1.9043018572994801</v>
       </c>
       <c r="S75">
-        <v>1.9173037332023919</v>
+        <v>1.911354170888294</v>
       </c>
       <c r="T75">
-        <v>1.9803734282972481</v>
+        <v>1.99669040938197</v>
       </c>
       <c r="U75">
-        <v>1.992778083052045</v>
+        <v>1.9825303886976551</v>
       </c>
       <c r="V75">
-        <v>2.0332787724812471</v>
+        <v>2.006080966150706</v>
       </c>
       <c r="W75">
-        <v>2.044953559281764</v>
+        <v>1.990927605998889</v>
       </c>
       <c r="X75">
-        <v>2.0955026391528531</v>
+        <v>2.0434511049237112</v>
       </c>
       <c r="Y75">
-        <v>2.0579511700976938</v>
+        <v>1.9975134733739119</v>
       </c>
       <c r="Z75">
         <f>AVERAGE(A75:X75)</f>
-        <v>1.8219212655256087</v>
+        <v>1.8299376466525845</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>1.7295926294527939</v>
+        <v>1.7508629733662731</v>
       </c>
       <c r="C76">
-        <v>1.7344662122925509</v>
+        <v>1.716122295639875</v>
       </c>
       <c r="D76">
-        <v>1.7730114397637451</v>
+        <v>1.720304853935366</v>
       </c>
       <c r="E76">
-        <v>1.7267835764223891</v>
+        <v>1.710915945437566</v>
       </c>
       <c r="F76">
-        <v>1.662263035726169</v>
+        <v>1.6192894766161969</v>
       </c>
       <c r="G76">
-        <v>1.688099897493244</v>
+        <v>1.664183139601298</v>
       </c>
       <c r="H76">
-        <v>1.722346220001638</v>
+        <v>1.6996948178880591</v>
       </c>
       <c r="I76">
-        <v>1.705722070844687</v>
+        <v>1.6916904536932129</v>
       </c>
       <c r="J76">
-        <v>1.681826454169653</v>
+        <v>1.6857595504055789</v>
       </c>
       <c r="K76">
-        <v>1.6794791933848761</v>
+        <v>1.6872096683881299</v>
       </c>
       <c r="L76">
-        <v>1.7218026226261871</v>
+        <v>1.7747934928893181</v>
       </c>
       <c r="M76">
-        <v>1.720487533653283</v>
+        <v>1.7953443987221449</v>
       </c>
       <c r="N76">
-        <v>1.7975750412052109</v>
+        <v>1.8072640810980121</v>
       </c>
       <c r="O76">
-        <v>1.8440215544443901</v>
+        <v>1.849369594469245</v>
       </c>
       <c r="P76">
-        <v>1.8872797026735399</v>
+        <v>1.8958329464633901</v>
       </c>
       <c r="Q76">
-        <v>1.8664364960538811</v>
+        <v>1.889844712157269</v>
       </c>
       <c r="R76">
-        <v>1.872990046274567</v>
+        <v>1.8815164908505231</v>
       </c>
       <c r="S76">
-        <v>1.918112109569662</v>
+        <v>1.9173037332023919</v>
       </c>
       <c r="T76">
-        <v>1.981100662510191</v>
+        <v>1.9803734282972481</v>
       </c>
       <c r="U76">
-        <v>1.984416038015492</v>
+        <v>1.992778083052045</v>
       </c>
       <c r="V76">
-        <v>2.0170373295926569</v>
+        <v>2.0332787724812471</v>
       </c>
       <c r="W76">
-        <v>2.0321962163635789</v>
+        <v>2.044953559281764</v>
       </c>
       <c r="X76">
-        <v>2.0628645925402158</v>
+        <v>2.0955026391528531</v>
       </c>
       <c r="Y76">
-        <v>2.023885620360828</v>
+        <v>2.0579511700976938</v>
       </c>
       <c r="Z76">
         <f>AVERAGE(A76:X76)</f>
-        <v>1.8178222032641127</v>
+        <v>1.8219212655256087</v>
       </c>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B77">
-        <v>1.7231458343957711</v>
+        <v>1.7295926294527939</v>
       </c>
       <c r="C77">
-        <v>1.719112557380166</v>
+        <v>1.7344662122925509</v>
       </c>
       <c r="D77">
-        <v>1.750799107412099</v>
+        <v>1.7730114397637451</v>
       </c>
       <c r="E77">
-        <v>1.7196688675712739</v>
+        <v>1.7267835764223891</v>
       </c>
       <c r="F77">
-        <v>1.6471099865580769</v>
+        <v>1.662263035726169</v>
       </c>
       <c r="G77">
-        <v>1.6725580959178521</v>
+        <v>1.688099897493244</v>
       </c>
       <c r="H77">
-        <v>1.704325650527345</v>
+        <v>1.722346220001638</v>
       </c>
       <c r="I77">
-        <v>1.6948810658436839</v>
+        <v>1.705722070844687</v>
       </c>
       <c r="J77">
-        <v>1.6864677548935041</v>
+        <v>1.681826454169653</v>
       </c>
       <c r="K77">
-        <v>1.674980716080251</v>
+        <v>1.6794791933848761</v>
       </c>
       <c r="L77">
-        <v>1.7286705333240151</v>
+        <v>1.7218026226261871</v>
       </c>
       <c r="M77">
-        <v>1.7396366065528941</v>
+        <v>1.720487533653283</v>
       </c>
       <c r="N77">
-        <v>1.770617043518107</v>
+        <v>1.7975750412052109</v>
       </c>
       <c r="O77">
-        <v>1.8212391761482309</v>
+        <v>1.8440215544443901</v>
       </c>
       <c r="P77">
-        <v>1.8779701982815129</v>
+        <v>1.8872797026735399</v>
       </c>
       <c r="Q77">
-        <v>1.862503816511385</v>
+        <v>1.8664364960538811</v>
       </c>
       <c r="R77">
-        <v>1.8415479530411569</v>
+        <v>1.872990046274567</v>
       </c>
       <c r="S77">
-        <v>1.869528736612091</v>
+        <v>1.918112109569662</v>
       </c>
       <c r="T77">
-        <v>1.951399643710779</v>
+        <v>1.981100662510191</v>
       </c>
       <c r="U77">
-        <v>1.9597201392578449</v>
+        <v>1.984416038015492</v>
       </c>
       <c r="V77">
-        <v>1.9805037096183919</v>
+        <v>2.0170373295926569</v>
       </c>
       <c r="W77">
-        <v>1.9945107809919429</v>
+        <v>2.0321962163635789</v>
       </c>
       <c r="X77">
-        <v>2.0209854899956659</v>
+        <v>2.0628645925402158</v>
       </c>
       <c r="Y77">
-        <v>2.00266028822274</v>
+        <v>2.023885620360828</v>
       </c>
       <c r="Z77">
         <f>AVERAGE(A77:X77)</f>
-        <v>1.8005166723540886</v>
+        <v>1.8178222032641127</v>
       </c>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="B78">
-        <v>1.686961047351561</v>
+        <v>1.7231458343957711</v>
       </c>
       <c r="C78">
-        <v>1.673680485128227</v>
+        <v>1.719112557380166</v>
       </c>
       <c r="D78">
-        <v>1.677159129596824</v>
+        <v>1.750799107412099</v>
       </c>
       <c r="E78">
-        <v>1.6677032987725899</v>
+        <v>1.7196688675712739</v>
       </c>
       <c r="F78">
-        <v>1.5966739424176279</v>
+        <v>1.6471099865580769</v>
       </c>
       <c r="G78">
-        <v>1.622425767599287</v>
+        <v>1.6725580959178521</v>
       </c>
       <c r="H78">
-        <v>1.6273495614152029</v>
+        <v>1.704325650527345</v>
       </c>
       <c r="I78">
-        <v>1.616003034549611</v>
+        <v>1.6948810658436839</v>
       </c>
       <c r="J78">
-        <v>1.6109859932864239</v>
+        <v>1.6864677548935041</v>
       </c>
       <c r="K78">
-        <v>1.6074030561256021</v>
+        <v>1.674980716080251</v>
       </c>
       <c r="L78">
-        <v>1.6568294554211009</v>
+        <v>1.7286705333240151</v>
       </c>
       <c r="M78">
-        <v>1.681275954053854</v>
+        <v>1.7396366065528941</v>
       </c>
       <c r="N78">
-        <v>1.708583567176313</v>
+        <v>1.770617043518107</v>
       </c>
       <c r="O78">
-        <v>1.7467212244383921</v>
+        <v>1.8212391761482309</v>
       </c>
       <c r="P78">
-        <v>1.7958772590820531</v>
+        <v>1.8779701982815129</v>
       </c>
       <c r="Q78">
-        <v>1.815580278424535</v>
+        <v>1.862503816511385</v>
       </c>
       <c r="R78">
-        <v>1.7558464511016121</v>
+        <v>1.8415479530411569</v>
       </c>
       <c r="S78">
-        <v>1.776040270317744</v>
+        <v>1.869528736612091</v>
       </c>
       <c r="T78">
-        <v>1.8306045886777289</v>
+        <v>1.951399643710779</v>
       </c>
       <c r="U78">
-        <v>1.8523316062176169</v>
+        <v>1.9597201392578449</v>
       </c>
       <c r="V78">
-        <v>1.847833393834281</v>
+        <v>1.9805037096183919</v>
       </c>
       <c r="W78">
-        <v>1.8423101111340769</v>
+        <v>1.9945107809919429</v>
       </c>
       <c r="X78">
-        <v>1.8758459509685721</v>
+        <v>2.0209854899956659</v>
       </c>
       <c r="Y78">
-        <v>1.8574657282859961</v>
+        <v>2.00266028822274</v>
       </c>
       <c r="Z78">
         <f>AVERAGE(A78:X78)</f>
-        <v>1.7205228446561229</v>
+        <v>1.8005166723540886</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B79">
-        <v>1.6441731578799521</v>
+        <v>1.686961047351561</v>
       </c>
       <c r="C79">
-        <v>1.625681906912452</v>
+        <v>1.673680485128227</v>
       </c>
       <c r="D79">
-        <v>1.6424014989904649</v>
+        <v>1.677159129596824</v>
       </c>
       <c r="E79">
-        <v>1.6214338632069789</v>
+        <v>1.6677032987725899</v>
       </c>
       <c r="F79">
-        <v>1.574631233024715</v>
+        <v>1.5966739424176279</v>
       </c>
       <c r="G79">
-        <v>1.582321613992828</v>
+        <v>1.622425767599287</v>
       </c>
       <c r="H79">
-        <v>1.5982525713281051</v>
+        <v>1.6273495614152029</v>
       </c>
       <c r="I79">
-        <v>1.5889523588036649</v>
+        <v>1.616003034549611</v>
       </c>
       <c r="J79">
-        <v>1.5695162521422299</v>
+        <v>1.6109859932864239</v>
       </c>
       <c r="K79">
-        <v>1.548050302660599</v>
+        <v>1.6074030561256021</v>
       </c>
       <c r="L79">
-        <v>1.602011258163107</v>
+        <v>1.6568294554211009</v>
       </c>
       <c r="M79">
-        <v>1.5990819570150421</v>
+        <v>1.681275954053854</v>
       </c>
       <c r="N79">
-        <v>1.68964816941651</v>
+        <v>1.708583567176313</v>
       </c>
       <c r="O79">
-        <v>1.744098538356911</v>
+        <v>1.7467212244383921</v>
       </c>
       <c r="P79">
-        <v>1.7518740968208091</v>
+        <v>1.7958772590820531</v>
       </c>
       <c r="Q79">
-        <v>1.750027410256582</v>
+        <v>1.815580278424535</v>
       </c>
       <c r="R79">
-        <v>1.7786918771884901</v>
+        <v>1.7558464511016121</v>
       </c>
       <c r="S79">
-        <v>1.8125888298152339</v>
+        <v>1.776040270317744</v>
       </c>
       <c r="T79">
-        <v>1.8698582993739821</v>
+        <v>1.8306045886777289</v>
       </c>
       <c r="U79">
-        <v>1.900616138305554</v>
+        <v>1.8523316062176169</v>
       </c>
       <c r="V79">
-        <v>1.920846822118762</v>
+        <v>1.847833393834281</v>
       </c>
       <c r="W79">
-        <v>1.9305799969488551</v>
+        <v>1.8423101111340769</v>
       </c>
       <c r="X79">
-        <v>1.9598912275804901</v>
+        <v>1.8758459509685721</v>
       </c>
       <c r="Y79">
-        <v>1.942971420657122</v>
+        <v>1.8574657282859961</v>
       </c>
       <c r="Z79">
         <f>AVERAGE(A79:X79)</f>
-        <v>1.7089230165348837</v>
+        <v>1.7205228446561229</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B80">
-        <v>1.5473122662743919</v>
+        <v>1.6441731578799521</v>
       </c>
       <c r="C80">
-        <v>1.5290345714948641</v>
+        <v>1.625681906912452</v>
       </c>
       <c r="D80">
-        <v>1.545476553721348</v>
+        <v>1.6424014989904649</v>
       </c>
       <c r="E80">
-        <v>1.5117857807767581</v>
+        <v>1.6214338632069789</v>
       </c>
       <c r="F80">
-        <v>1.487817800162295</v>
+        <v>1.574631233024715</v>
       </c>
       <c r="G80">
-        <v>1.5038584061379809</v>
+        <v>1.582321613992828</v>
       </c>
       <c r="H80">
-        <v>1.5406522079140821</v>
+        <v>1.5982525713281051</v>
       </c>
       <c r="I80">
-        <v>1.5147446417027211</v>
+        <v>1.5889523588036649</v>
       </c>
       <c r="J80">
-        <v>1.524275401911692</v>
+        <v>1.5695162521422299</v>
       </c>
       <c r="K80">
-        <v>1.5266730794492911</v>
+        <v>1.548050302660599</v>
       </c>
       <c r="L80">
-        <v>1.560486058144924</v>
+        <v>1.602011258163107</v>
       </c>
       <c r="M80">
-        <v>1.5764926355242519</v>
+        <v>1.5990819570150421</v>
       </c>
       <c r="N80">
-        <v>1.699639502740103</v>
+        <v>1.68964816941651</v>
       </c>
       <c r="O80">
-        <v>1.7789362047878481</v>
+        <v>1.744098538356911</v>
       </c>
       <c r="P80">
-        <v>1.841565205034001</v>
+        <v>1.7518740968208091</v>
       </c>
       <c r="Q80">
-        <v>1.8566043267921839</v>
+        <v>1.750027410256582</v>
       </c>
       <c r="R80">
-        <v>1.8711297227921271</v>
+        <v>1.7786918771884901</v>
       </c>
       <c r="S80">
-        <v>1.885426626223996</v>
+        <v>1.8125888298152339</v>
       </c>
       <c r="T80">
-        <v>1.964551059445526</v>
+        <v>1.8698582993739821</v>
       </c>
       <c r="U80">
-        <v>1.9581542413912361</v>
+        <v>1.900616138305554</v>
       </c>
       <c r="V80">
-        <v>1.9858914001120209</v>
+        <v>1.920846822118762</v>
       </c>
       <c r="W80">
-        <v>1.997242477728848</v>
+        <v>1.9305799969488551</v>
       </c>
       <c r="X80">
-        <v>2.0702260267649319</v>
+        <v>1.9598912275804901</v>
       </c>
       <c r="Y80">
-        <v>2.045735933095576</v>
+        <v>1.942971420657122</v>
       </c>
       <c r="Z80">
         <f>AVERAGE(A80:X80)</f>
-        <v>1.7077380955229313</v>
+        <v>1.7089230165348837</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>1.6279976353059109</v>
+        <v>1.5473122662743919</v>
       </c>
       <c r="C81">
-        <v>1.5980346937857179</v>
+        <v>1.5290345714948641</v>
       </c>
       <c r="D81">
-        <v>1.6409144102894671</v>
+        <v>1.545476553721348</v>
       </c>
       <c r="E81">
-        <v>1.605817271425291</v>
+        <v>1.5117857807767581</v>
       </c>
       <c r="F81">
-        <v>1.5313983409784711</v>
+        <v>1.487817800162295</v>
       </c>
       <c r="G81">
-        <v>1.5468035626710539</v>
+        <v>1.5038584061379809</v>
       </c>
       <c r="H81">
-        <v>1.59550948472745</v>
+        <v>1.5406522079140821</v>
       </c>
       <c r="I81">
-        <v>1.586893116175826</v>
+        <v>1.5147446417027211</v>
       </c>
       <c r="J81">
-        <v>1.5950242672067869</v>
+        <v>1.524275401911692</v>
       </c>
       <c r="K81">
-        <v>1.6144248786089901</v>
+        <v>1.5266730794492911</v>
       </c>
       <c r="L81">
-        <v>1.671072216165628</v>
+        <v>1.560486058144924</v>
       </c>
       <c r="M81">
-        <v>1.66598612688726</v>
+        <v>1.5764926355242519</v>
       </c>
       <c r="N81">
-        <v>1.688328988867607</v>
+        <v>1.699639502740103</v>
       </c>
       <c r="O81">
-        <v>1.741437989385249</v>
+        <v>1.7789362047878481</v>
       </c>
       <c r="P81">
-        <v>1.7990296220633299</v>
+        <v>1.841565205034001</v>
       </c>
       <c r="Q81">
-        <v>1.779762810681714</v>
+        <v>1.8566043267921839</v>
       </c>
       <c r="R81">
-        <v>1.7235137639756519</v>
+        <v>1.8711297227921271</v>
       </c>
       <c r="S81">
-        <v>1.736366037237554</v>
+        <v>1.885426626223996</v>
       </c>
       <c r="T81">
-        <v>1.7994055030426319</v>
+        <v>1.964551059445526</v>
       </c>
       <c r="U81">
-        <v>1.7922695400843509</v>
+        <v>1.9581542413912361</v>
       </c>
       <c r="V81">
-        <v>1.8244290215891039</v>
+        <v>1.9858914001120209</v>
       </c>
       <c r="W81">
-        <v>1.8446247524773489</v>
+        <v>1.997242477728848</v>
       </c>
       <c r="X81">
-        <v>1.9488001762297431</v>
+        <v>2.0702260267649319</v>
       </c>
       <c r="Y81">
-        <v>1.920482779412223</v>
+        <v>2.045735933095576</v>
       </c>
       <c r="Z81">
         <f>AVERAGE(A81:X81)</f>
-        <v>1.6938193134722672</v>
+        <v>1.7077380955229313</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B82">
-        <v>1.637016470784711</v>
+        <v>1.6279976353059109</v>
       </c>
       <c r="C82">
-        <v>1.616363537058277</v>
+        <v>1.5980346937857179</v>
       </c>
       <c r="D82">
-        <v>1.657669558788353</v>
+        <v>1.6409144102894671</v>
       </c>
       <c r="E82">
-        <v>1.629720611661474</v>
+        <v>1.605817271425291</v>
       </c>
       <c r="F82">
-        <v>1.571807034955963</v>
+        <v>1.5313983409784711</v>
       </c>
       <c r="G82">
-        <v>1.559536730810976</v>
+        <v>1.5468035626710539</v>
       </c>
       <c r="H82">
-        <v>1.574859342686197</v>
+        <v>1.59550948472745</v>
       </c>
       <c r="I82">
-        <v>1.5606873288937759</v>
+        <v>1.586893116175826</v>
       </c>
       <c r="J82">
-        <v>1.5117368154435431</v>
+        <v>1.5950242672067869</v>
       </c>
       <c r="K82">
-        <v>1.4574879525809781</v>
+        <v>1.6144248786089901</v>
       </c>
       <c r="L82">
-        <v>1.5074221699691259</v>
+        <v>1.671072216165628</v>
       </c>
       <c r="M82">
-        <v>1.5360728232164711</v>
+        <v>1.66598612688726</v>
       </c>
       <c r="N82">
-        <v>1.7240107910386191</v>
+        <v>1.688328988867607</v>
       </c>
       <c r="O82">
-        <v>1.793542558454688</v>
+        <v>1.741437989385249</v>
       </c>
       <c r="P82">
-        <v>1.7854303189684031</v>
+        <v>1.7990296220633299</v>
       </c>
       <c r="Q82">
-        <v>1.7216342690066659</v>
+        <v>1.779762810681714</v>
       </c>
       <c r="R82">
-        <v>1.746894517937376</v>
+        <v>1.7235137639756519</v>
       </c>
       <c r="S82">
-        <v>1.7724746035778109</v>
+        <v>1.736366037237554</v>
       </c>
       <c r="T82">
-        <v>1.864796809401946</v>
+        <v>1.7994055030426319</v>
       </c>
       <c r="U82">
-        <v>1.845756746895941</v>
+        <v>1.7922695400843509</v>
       </c>
       <c r="V82">
-        <v>1.872692672364519</v>
+        <v>1.8244290215891039</v>
       </c>
       <c r="W82">
-        <v>1.8312167325573689</v>
+        <v>1.8446247524773489</v>
       </c>
       <c r="X82">
-        <v>1.9187894062047119</v>
+        <v>1.9488001762297431</v>
       </c>
       <c r="Y82">
-        <v>1.879154980783214</v>
+        <v>1.920482779412223</v>
       </c>
       <c r="Z82">
         <f>AVERAGE(A82:X82)</f>
-        <v>1.6825052088373003</v>
+        <v>1.6938193134722672</v>
       </c>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B83">
-        <v>1.673857004761734</v>
+        <v>1.637016470784711</v>
       </c>
       <c r="C83">
-        <v>1.5931099798745121</v>
+        <v>1.616363537058277</v>
       </c>
       <c r="D83">
-        <v>1.62344769767293</v>
+        <v>1.657669558788353</v>
       </c>
       <c r="E83">
-        <v>1.578217973927817</v>
+        <v>1.629720611661474</v>
       </c>
       <c r="F83">
-        <v>1.528668775959056</v>
+        <v>1.571807034955963</v>
       </c>
       <c r="G83">
-        <v>1.5443787793607491</v>
+        <v>1.559536730810976</v>
       </c>
       <c r="H83">
-        <v>1.582293786630945</v>
+        <v>1.574859342686197</v>
       </c>
       <c r="I83">
-        <v>1.556160402582383</v>
+        <v>1.5606873288937759</v>
       </c>
       <c r="J83">
-        <v>1.524926686217009</v>
+        <v>1.5117368154435431</v>
       </c>
       <c r="K83">
-        <v>1.5230185218211001</v>
+        <v>1.4574879525809781</v>
       </c>
       <c r="L83">
-        <v>1.622762118957114</v>
+        <v>1.5074221699691259</v>
       </c>
       <c r="M83">
-        <v>1.628323856908962</v>
+        <v>1.5360728232164711</v>
       </c>
       <c r="N83">
-        <v>1.6355866498620231</v>
+        <v>1.7240107910386191</v>
       </c>
       <c r="O83">
-        <v>1.7009145748200041</v>
+        <v>1.793542558454688</v>
       </c>
       <c r="P83">
-        <v>1.760187743047247</v>
+        <v>1.7854303189684031</v>
       </c>
       <c r="Q83">
-        <v>1.728300660466628</v>
+        <v>1.7216342690066659</v>
       </c>
       <c r="R83">
-        <v>1.746315603463509</v>
+        <v>1.746894517937376</v>
       </c>
       <c r="S83">
-        <v>1.7885489316463969</v>
+        <v>1.7724746035778109</v>
       </c>
       <c r="T83">
-        <v>1.8518813159969769</v>
+        <v>1.864796809401946</v>
       </c>
       <c r="U83">
-        <v>1.822280564226971</v>
+        <v>1.845756746895941</v>
       </c>
       <c r="V83">
-        <v>1.844957055885428</v>
+        <v>1.872692672364519</v>
       </c>
       <c r="W83">
-        <v>1.8546788463567569</v>
+        <v>1.8312167325573689</v>
       </c>
       <c r="X83">
-        <v>1.941185783442557</v>
+        <v>1.9187894062047119</v>
       </c>
       <c r="Y83">
-        <v>1.902865824907005</v>
+        <v>1.879154980783214</v>
       </c>
       <c r="Z83">
         <f>AVERAGE(A83:X83)</f>
-        <v>1.680608839734296</v>
+        <v>1.6825052088373003</v>
       </c>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B84">
-        <v>1.8132225509326281</v>
+        <v>1.673857004761734</v>
       </c>
       <c r="C84">
-        <v>1.8054382109160849</v>
+        <v>1.5931099798745121</v>
       </c>
       <c r="D84">
-        <v>1.781025374787919</v>
+        <v>1.62344769767293</v>
       </c>
       <c r="E84">
-        <v>1.7116660031898929</v>
+        <v>1.578217973927817</v>
       </c>
       <c r="F84">
-        <v>1.6005113074756421</v>
+        <v>1.528668775959056</v>
       </c>
       <c r="G84">
-        <v>1.595362548011928</v>
+        <v>1.5443787793607491</v>
       </c>
       <c r="H84">
-        <v>1.5902408432528909</v>
+        <v>1.582293786630945</v>
       </c>
       <c r="I84">
-        <v>1.5745015927556461</v>
+        <v>1.556160402582383</v>
       </c>
       <c r="J84">
-        <v>1.58581951664162</v>
+        <v>1.524926686217009</v>
       </c>
       <c r="K84">
-        <v>1.566099664866234</v>
+        <v>1.5230185218211001</v>
       </c>
       <c r="L84">
-        <v>1.565319597607771</v>
+        <v>1.622762118957114</v>
       </c>
       <c r="M84">
-        <v>1.544615931672559</v>
+        <v>1.628323856908962</v>
       </c>
       <c r="N84">
-        <v>1.579747957569835</v>
+        <v>1.6355866498620231</v>
       </c>
       <c r="O84">
-        <v>1.617808871226629</v>
+        <v>1.7009145748200041</v>
       </c>
       <c r="P84">
-        <v>1.633413681976577</v>
+        <v>1.760187743047247</v>
       </c>
       <c r="Q84">
-        <v>1.63807605399621</v>
+        <v>1.728300660466628</v>
       </c>
       <c r="R84">
-        <v>1.663107003475526</v>
+        <v>1.746315603463509</v>
       </c>
       <c r="S84">
-        <v>1.6719917755861169</v>
+        <v>1.7885489316463969</v>
       </c>
       <c r="T84">
-        <v>1.697319258533754</v>
+        <v>1.8518813159969769</v>
       </c>
       <c r="U84">
-        <v>1.719365906401382</v>
+        <v>1.822280564226971</v>
       </c>
       <c r="V84">
-        <v>1.750873898507235</v>
+        <v>1.844957055885428</v>
       </c>
       <c r="W84">
-        <v>1.752029504873946</v>
+        <v>1.8546788463567569</v>
       </c>
       <c r="X84">
-        <v>1.804100749375521</v>
+        <v>1.941185783442557</v>
       </c>
       <c r="Y84">
-        <v>1.7830843483312839</v>
+        <v>1.902865824907005</v>
       </c>
       <c r="Z84">
         <f>AVERAGE(A84:X84)</f>
-        <v>1.6635503392884154</v>
+        <v>1.680608839734296</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B85">
-        <v>1.6645786762959871</v>
+        <v>1.8132225509326281</v>
       </c>
       <c r="C85">
-        <v>1.6603116867675001</v>
+        <v>1.8054382109160849</v>
       </c>
       <c r="D85">
-        <v>1.673317513659816</v>
+        <v>1.781025374787919</v>
       </c>
       <c r="E85">
-        <v>1.637348302170218</v>
+        <v>1.7116660031898929</v>
       </c>
       <c r="F85">
-        <v>1.543370848202031</v>
+        <v>1.6005113074756421</v>
       </c>
       <c r="G85">
-        <v>1.5676946494325921</v>
+        <v>1.595362548011928</v>
       </c>
       <c r="H85">
-        <v>1.5975450535103171</v>
+        <v>1.5902408432528909</v>
       </c>
       <c r="I85">
-        <v>1.5910223331672451</v>
+        <v>1.5745015927556461</v>
       </c>
       <c r="J85">
-        <v>1.546528905004465</v>
+        <v>1.58581951664162</v>
       </c>
       <c r="K85">
-        <v>1.5056364672044109</v>
+        <v>1.566099664866234</v>
       </c>
       <c r="L85">
-        <v>1.5700540163710071</v>
+        <v>1.565319597607771</v>
       </c>
       <c r="M85">
-        <v>1.5902228612508991</v>
+        <v>1.544615931672559</v>
       </c>
       <c r="N85">
-        <v>1.6356118570354601</v>
+        <v>1.579747957569835</v>
       </c>
       <c r="O85">
-        <v>1.658893210464309</v>
+        <v>1.617808871226629</v>
       </c>
       <c r="P85">
-        <v>1.706203587341484</v>
+        <v>1.633413681976577</v>
       </c>
       <c r="Q85">
-        <v>1.7015983129297421</v>
+        <v>1.63807605399621</v>
       </c>
       <c r="R85">
-        <v>1.6731005643052881</v>
+        <v>1.663107003475526</v>
       </c>
       <c r="S85">
-        <v>1.6788172995909529</v>
+        <v>1.6719917755861169</v>
       </c>
       <c r="T85">
-        <v>1.7331356754913021</v>
+        <v>1.697319258533754</v>
       </c>
       <c r="U85">
-        <v>1.748769177610366</v>
+        <v>1.719365906401382</v>
       </c>
       <c r="V85">
-        <v>1.756653370823253</v>
+        <v>1.750873898507235</v>
       </c>
       <c r="W85">
-        <v>1.735281779969353</v>
+        <v>1.752029504873946</v>
       </c>
       <c r="X85">
-        <v>1.7486939145307829</v>
+        <v>1.804100749375521</v>
       </c>
       <c r="Y85">
-        <v>1.715399752356572</v>
+        <v>1.7830843483312839</v>
       </c>
       <c r="Z85">
         <f>AVERAGE(A85:X85)</f>
-        <v>1.6488865244838602</v>
+        <v>1.6635503392884154</v>
       </c>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B86">
-        <v>1.587993467822526</v>
+        <v>1.6645786762959871</v>
       </c>
       <c r="C86">
-        <v>1.552071544165089</v>
+        <v>1.6603116867675001</v>
       </c>
       <c r="D86">
-        <v>1.581553714695715</v>
+        <v>1.673317513659816</v>
       </c>
       <c r="E86">
-        <v>1.552259745465477</v>
+        <v>1.637348302170218</v>
       </c>
       <c r="F86">
-        <v>1.513275845731072</v>
+        <v>1.543370848202031</v>
       </c>
       <c r="G86">
-        <v>1.510492680278344</v>
+        <v>1.5676946494325921</v>
       </c>
       <c r="H86">
-        <v>1.525504648834564</v>
+        <v>1.5975450535103171</v>
       </c>
       <c r="I86">
-        <v>1.5100502814078789</v>
+        <v>1.5910223331672451</v>
       </c>
       <c r="J86">
-        <v>1.5198109122401851</v>
+        <v>1.546528905004465</v>
       </c>
       <c r="K86">
-        <v>1.5412377107530471</v>
+        <v>1.5056364672044109</v>
       </c>
       <c r="L86">
-        <v>1.5931308044489021</v>
+        <v>1.5700540163710071</v>
       </c>
       <c r="M86">
-        <v>1.5668396689577779</v>
+        <v>1.5902228612508991</v>
       </c>
       <c r="N86">
-        <v>1.6234012516066501</v>
+        <v>1.6356118570354601</v>
       </c>
       <c r="O86">
-        <v>1.659858609020985</v>
+        <v>1.658893210464309</v>
       </c>
       <c r="P86">
-        <v>1.7014156716934941</v>
+        <v>1.706203587341484</v>
       </c>
       <c r="Q86">
-        <v>1.691118823728984</v>
+        <v>1.7015983129297421</v>
       </c>
       <c r="R86">
-        <v>1.677463405446131</v>
+        <v>1.6731005643052881</v>
       </c>
       <c r="S86">
-        <v>1.6825294150448891</v>
+        <v>1.6788172995909529</v>
       </c>
       <c r="T86">
-        <v>1.7641319400730211</v>
+        <v>1.7331356754913021</v>
       </c>
       <c r="U86">
-        <v>1.763742170334911</v>
+        <v>1.748769177610366</v>
       </c>
       <c r="V86">
-        <v>1.838628382004307</v>
+        <v>1.756653370823253</v>
       </c>
       <c r="W86">
-        <v>1.8524012650176369</v>
+        <v>1.735281779969353</v>
       </c>
       <c r="X86">
-        <v>1.9150336178058449</v>
+        <v>1.7486939145307829</v>
       </c>
       <c r="Y86">
-        <v>1.882630176168498</v>
+        <v>1.715399752356572</v>
       </c>
       <c r="Z86">
         <f>AVERAGE(A86:X86)</f>
+        <v>1.6488865244838602</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87">
+        <v>1.587993467822526</v>
+      </c>
+      <c r="C87">
+        <v>1.552071544165089</v>
+      </c>
+      <c r="D87">
+        <v>1.581553714695715</v>
+      </c>
+      <c r="E87">
+        <v>1.552259745465477</v>
+      </c>
+      <c r="F87">
+        <v>1.513275845731072</v>
+      </c>
+      <c r="G87">
+        <v>1.510492680278344</v>
+      </c>
+      <c r="H87">
+        <v>1.525504648834564</v>
+      </c>
+      <c r="I87">
+        <v>1.5100502814078789</v>
+      </c>
+      <c r="J87">
+        <v>1.5198109122401851</v>
+      </c>
+      <c r="K87">
+        <v>1.5412377107530471</v>
+      </c>
+      <c r="L87">
+        <v>1.5931308044489021</v>
+      </c>
+      <c r="M87">
+        <v>1.5668396689577779</v>
+      </c>
+      <c r="N87">
+        <v>1.6234012516066501</v>
+      </c>
+      <c r="O87">
+        <v>1.659858609020985</v>
+      </c>
+      <c r="P87">
+        <v>1.7014156716934941</v>
+      </c>
+      <c r="Q87">
+        <v>1.691118823728984</v>
+      </c>
+      <c r="R87">
+        <v>1.677463405446131</v>
+      </c>
+      <c r="S87">
+        <v>1.6825294150448891</v>
+      </c>
+      <c r="T87">
+        <v>1.7641319400730211</v>
+      </c>
+      <c r="U87">
+        <v>1.763742170334911</v>
+      </c>
+      <c r="V87">
+        <v>1.838628382004307</v>
+      </c>
+      <c r="W87">
+        <v>1.8524012650176369</v>
+      </c>
+      <c r="X87">
+        <v>1.9150336178058449</v>
+      </c>
+      <c r="Y87">
+        <v>1.882630176168498</v>
+      </c>
+      <c r="Z87">
+        <f>AVERAGE(A87:X87)</f>
         <v>1.6401715468077145</v>
       </c>
     </row>
